--- a/data_documentation/Synthetic_data_nhddi_tutorial_github.xlsx
+++ b/data_documentation/Synthetic_data_nhddi_tutorial_github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Tutorial manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114C27EF-DC58-4181-A468-568A67D6A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BAA82B-EC0D-42CD-999D-7BB4AE9EE793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="723" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="32" r:id="rId1"/>
@@ -221,16 +221,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,27 +236,7 @@
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3D4BCD36-D75E-40B8-BC90-3775D9D343CF}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{10048F73-4FE5-4D4C-9009-67EA77592F7B}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -557,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3509B92-0A14-425B-A9C6-79ADF5125B6E}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -612,7 +590,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>9</v>
@@ -2548,10 +2526,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2563,7 +2538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5866E18-EEB9-410E-B7C7-AB008B438258}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2580,75 +2555,76 @@
     <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>41989</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>42006</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>41989</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>42006</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="4">
@@ -2659,34 +2635,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>41867</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>41877</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>41837</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>41940</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="4">
@@ -2697,34 +2673,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>41884</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>41905</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>41837</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>41940</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="4">
@@ -2735,34 +2711,34 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>41910</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>41940</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>41837</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>41940</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="4">
@@ -2773,34 +2749,34 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>42547</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>42559</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>42540</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>42640</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="4">
@@ -2811,34 +2787,34 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>42569</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>42640</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>42540</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>42640</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="4">
@@ -2849,31 +2825,31 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>41574</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>41594</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>41551</v>
       </c>
       <c r="F8" s="4">
         <v>43159</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="4">
@@ -2887,31 +2863,31 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>41601</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>41719</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>41551</v>
       </c>
       <c r="F9" s="4">
         <v>43159</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="4">
@@ -2925,31 +2901,31 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>41786</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>41841</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>41551</v>
       </c>
       <c r="F10" s="4">
         <v>43159</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" s="4">
@@ -2963,31 +2939,31 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>41843</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>41942</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>41551</v>
       </c>
       <c r="F11" s="4">
         <v>43159</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="4">
@@ -3001,31 +2977,31 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>41944</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>42043</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>41551</v>
       </c>
       <c r="F12" s="4">
         <v>43159</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="4">
@@ -3039,31 +3015,31 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>42045</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>42144</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>41551</v>
       </c>
       <c r="F13" s="4">
         <v>43159</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" s="4">
@@ -3077,31 +3053,31 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>43069</v>
       </c>
       <c r="D14" s="4">
         <v>43159</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>41551</v>
       </c>
       <c r="F14" s="4">
         <v>43159</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="4">
@@ -3115,34 +3091,34 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>41672</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>41691</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>41672</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>44196</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K15" s="4">
@@ -3153,34 +3129,34 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>41705</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>42005</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>41672</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>44196</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K16" s="4">
@@ -3191,34 +3167,34 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>42016</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>42071</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>41672</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>44196</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="4">
@@ -3229,34 +3205,34 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>42089</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>42129</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>41672</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>44196</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="G18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="4">
@@ -3267,34 +3243,34 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>42140</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>42218</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>41672</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>44196</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K19" s="4">
@@ -3305,34 +3281,34 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>42232</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>42288</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>41672</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>44196</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="4">
@@ -3343,34 +3319,34 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>42302</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
         <v>42902</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>41672</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>44196</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5" t="s">
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K21" s="4">
@@ -3381,34 +3357,34 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>43348</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
         <v>43496</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>43348</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>43496</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K22" s="4">
@@ -3419,34 +3395,34 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>43677</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
         <v>43812</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>43677</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3">
         <v>43819</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="s">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K23" s="4">
@@ -3457,34 +3433,34 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>43814</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
         <v>43816</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>43677</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>43819</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K24" s="4">
@@ -3495,34 +3471,34 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>43818</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="3">
         <v>43819</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>43677</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="3">
         <v>43819</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K25" s="4">
@@ -3533,34 +3509,34 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>43888</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>43988</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>43888</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>43988</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="4">
@@ -3571,34 +3547,34 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
         <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>42340</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>42357</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>42340</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="3">
         <v>42964</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K27" s="4">
@@ -3609,34 +3585,34 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="2">
         <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <v>41694</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="3">
         <v>41868</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="3">
         <v>42340</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="3">
         <v>42964</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5" t="s">
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K28" s="4">
@@ -3647,34 +3623,34 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>42845</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="3">
         <v>42964</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3">
         <v>42340</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>42964</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="4">
@@ -3686,10 +3662,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
